--- a/src/main/resources/cheque2.xlsx
+++ b/src/main/resources/cheque2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\virtual_D\Projects\JAVA\mezShop\back\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DF0FB-C099-4D48-B5C6-4AFFF6B84F73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795B22A-4603-4F6E-82BB-10437F9EC92E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7250" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Внимание! Оплата данного счета означает согласие с условиями поставки товара. Уведомление об оплате 
  обязательно, в противном случае не гарантируется наличие товара на складе. Товар отпускается по факту
@@ -84,9 +84,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Артикул</t>
-  </si>
-  <si>
     <t>Товары (работы, услуги)</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>Всего к оплате:</t>
   </si>
   <si>
-    <t>Всего наименований , на сумму 0,00 руб.</t>
-  </si>
-  <si>
-    <t>Триста тридцать девять тысяч пятьсот двадцать рублей 00 копеек</t>
-  </si>
-  <si>
     <t>Руководитель</t>
   </si>
   <si>
@@ -135,25 +126,13 @@
     <t>Ответственный</t>
   </si>
   <si>
-    <t>Примечание:</t>
-  </si>
-  <si>
-    <t>Адрес склада: Московская обл., Ленинский р-н., пос. Петровское, д. 111</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Отпуск  продукции осуществляется при наличии оригинальной</t>
-  </si>
-  <si>
-    <t>Внимание!!! Подключение оборудования должно производиться только квалифицированным персоналом. В противном случае  претензии по качеству не принимаются</t>
-  </si>
-  <si>
-    <t>mez</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Васильев А. Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Подковаев Алексей</t>
   </si>
 </sst>
 </file>
@@ -163,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -234,20 +213,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -465,12 +430,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -483,7 +522,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -496,38 +535,42 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -536,27 +579,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,6 +600,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,86 +696,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,10 +1125,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29:AL31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1654,9 +1703,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="38" t="s">
-        <v>42</v>
-      </c>
+      <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -1736,48 +1783,46 @@
         <v>19</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40" t="s">
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="40" t="s">
         <v>21</v>
-      </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40" t="s">
-        <v>22</v>
       </c>
       <c r="Z25" s="40"/>
       <c r="AA25" s="40"/>
       <c r="AB25" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC25" s="40"/>
       <c r="AD25" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE25" s="40"/>
       <c r="AF25" s="40"/>
       <c r="AG25" s="40"/>
       <c r="AH25" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" s="41"/>
       <c r="AJ25" s="41"/>
@@ -1785,1036 +1830,986 @@
       <c r="AL25" s="41"/>
     </row>
     <row r="26" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="49">
+      <c r="B26" s="46">
         <v>1</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="48"/>
-    </row>
-    <row r="27" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="49">
+      <c r="C26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="57"/>
+    </row>
+    <row r="27" spans="2:38" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="64">
         <v>2</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="48"/>
-    </row>
-    <row r="28" spans="2:38" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-    </row>
-    <row r="29" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="15" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="63"/>
+    </row>
+    <row r="28" spans="2:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+    </row>
+    <row r="30" spans="2:38" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="68"/>
-      <c r="AL29" s="68"/>
-    </row>
-    <row r="30" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="15" t="s">
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+    </row>
+    <row r="31" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="69"/>
-    </row>
-    <row r="31" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="15" t="s">
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+    </row>
+    <row r="32" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+    </row>
+    <row r="33" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+    </row>
+    <row r="34" spans="2:38" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+    </row>
+    <row r="35" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+    </row>
+    <row r="36" spans="2:38" s="1" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="69"/>
-    </row>
-    <row r="32" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="66" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+    </row>
+    <row r="38" spans="2:38" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-    </row>
-    <row r="33" spans="2:39" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="67" t="s">
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-    </row>
-    <row r="34" spans="2:39" s="1" customFormat="1" ht="6.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-    </row>
-    <row r="35" spans="2:39" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-    </row>
-    <row r="37" spans="2:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="60" t="s">
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-    </row>
-    <row r="38" spans="2:39" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12" t="s">
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+    </row>
+    <row r="39" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+    </row>
+    <row r="40" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+    </row>
+    <row r="41" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+    </row>
+    <row r="42" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+    </row>
+    <row r="43" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9"/>
+    </row>
+    <row r="44" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+    </row>
+    <row r="45" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+    </row>
+    <row r="49" spans="2:39" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+    </row>
+    <row r="50" spans="2:39" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-    </row>
-    <row r="39" spans="2:39" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-    </row>
-    <row r="40" spans="2:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-    </row>
-    <row r="41" spans="2:39" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-    </row>
-    <row r="42" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
-    </row>
-    <row r="43" spans="2:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-    </row>
-    <row r="44" spans="2:39" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="13"/>
-    </row>
-    <row r="45" spans="2:39" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
-    </row>
-    <row r="46" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-    </row>
-    <row r="48" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="64"/>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="64"/>
-      <c r="Z48" s="64"/>
-      <c r="AA48" s="64"/>
-      <c r="AB48" s="64"/>
-      <c r="AC48" s="64"/>
-      <c r="AD48" s="64"/>
-      <c r="AE48" s="64"/>
-      <c r="AF48" s="64"/>
-      <c r="AG48" s="64"/>
-      <c r="AH48" s="64"/>
-      <c r="AI48" s="64"/>
-      <c r="AJ48" s="64"/>
-      <c r="AK48" s="64"/>
-      <c r="AL48" s="65"/>
-      <c r="AM48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
-      <c r="AC49" s="55"/>
-      <c r="AD49" s="55"/>
-      <c r="AE49" s="55"/>
-      <c r="AF49" s="55"/>
-      <c r="AG49" s="55"/>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="55"/>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="56"/>
-    </row>
-    <row r="51" spans="2:38" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="58"/>
-      <c r="W51" s="58"/>
-      <c r="X51" s="58"/>
-      <c r="Y51" s="58"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="58"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="58"/>
-      <c r="AI51" s="58"/>
-      <c r="AJ51" s="58"/>
-      <c r="AK51" s="58"/>
-      <c r="AL51" s="59"/>
-    </row>
-    <row r="52" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
+    </row>
+    <row r="51" spans="2:39" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+    </row>
+    <row r="52" spans="2:39" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+    </row>
+    <row r="53" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+    </row>
+    <row r="54" spans="2:39" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B48:AL48"/>
-    <mergeCell ref="B32:AL32"/>
-    <mergeCell ref="B33:AL33"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="AH29:AL29"/>
-    <mergeCell ref="AH30:AL30"/>
-    <mergeCell ref="AH31:AL31"/>
-    <mergeCell ref="B49:AL49"/>
-    <mergeCell ref="B51:AL51"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:AL46"/>
+  <mergeCells count="44">
+    <mergeCell ref="AH26:AL26"/>
     <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AD27:AG27"/>
     <mergeCell ref="AH27:AL27"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="U27:X27"/>
     <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="D27:X27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="D26:X26"/>
     <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AH26:AL26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:AL19"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:X25"/>
     <mergeCell ref="H21:AL21"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="AD25:AG25"/>
     <mergeCell ref="AH25:AL25"/>
     <mergeCell ref="H23:AL23"/>
+    <mergeCell ref="D25:X25"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:V9"/>
     <mergeCell ref="B15:AL15"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="H17:AL17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:AL19"/>
+    <mergeCell ref="B1:AL1"/>
+    <mergeCell ref="B3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:AL3"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:AL5"/>
+    <mergeCell ref="B5:S5"/>
     <mergeCell ref="W6:AL9"/>
     <mergeCell ref="B7:S8"/>
     <mergeCell ref="B9:S9"/>
@@ -2823,15 +2818,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:V9"/>
-    <mergeCell ref="B1:AL1"/>
-    <mergeCell ref="B3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:AL3"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:AL5"/>
-    <mergeCell ref="B5:S5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>

--- a/src/main/resources/cheque2.xlsx
+++ b/src/main/resources/cheque2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\virtual_D\Projects\JAVA\mezShop\back\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795B22A-4603-4F6E-82BB-10437F9EC92E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2125384-C018-4644-93E8-19E87E44D0AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7250" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Внимание! Оплата данного счета означает согласие с условиями поставки товара. Уведомление об оплате 
  обязательно, в противном случае не гарантируется наличие товара на складе. Товар отпускается по факту
@@ -57,9 +57,6 @@
     <t>Получатель</t>
   </si>
   <si>
-    <t>Счет на оплату № 2418 от 03 августа 2021 г.</t>
-  </si>
-  <si>
     <t>к  Договору №   от</t>
   </si>
   <si>
@@ -123,16 +120,13 @@
     <t>Главный (старший) бухгалтер</t>
   </si>
   <si>
-    <t>Ответственный</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">  Васильев А. Л.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Подковаев Алексей</t>
+    <t>Счет № 2418 от 03 августа 2021 г.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -615,6 +609,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -636,33 +765,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -671,117 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,8 +1124,8 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AJ33" sqref="AJ33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1139,782 +1136,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
     </row>
     <row r="2" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="21" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="22">
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="67">
         <v>44525411</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
     </row>
     <row r="4" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="23" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="27" t="s">
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
     </row>
     <row r="5" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="26"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="59"/>
     </row>
     <row r="6" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35">
+      <c r="C6" s="72"/>
+      <c r="D6" s="52">
         <v>7701590872</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="34" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35">
+      <c r="L6" s="72"/>
+      <c r="M6" s="52">
         <v>773601001</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="23" t="s">
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23" t="s">
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
     </row>
     <row r="7" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="56"/>
     </row>
     <row r="8" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="31"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="56"/>
     </row>
     <row r="9" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="26"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="59"/>
     </row>
     <row r="11" spans="2:38" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
+      <c r="B11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
     </row>
     <row r="12" spans="2:38" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="B13" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
     </row>
     <row r="14" spans="2:38" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:38" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
+      <c r="B15" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
     </row>
     <row r="16" spans="2:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
     </row>
     <row r="18" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+    </row>
+    <row r="21" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-    </row>
-    <row r="21" spans="2:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
     </row>
     <row r="22" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:38" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
+      <c r="B23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
     </row>
     <row r="24" spans="2:38" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="43" t="s">
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="40" t="s">
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40" t="s">
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40" t="s">
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
     </row>
     <row r="26" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46">
+      <c r="B26" s="34">
         <v>1</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="57"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="19"/>
     </row>
     <row r="27" spans="2:38" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64">
+      <c r="B27" s="26">
         <v>2</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="63"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="25"/>
     </row>
     <row r="28" spans="2:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:38" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AG29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" s="13"/>
       <c r="AI29" s="15"/>
@@ -1955,7 +1952,7 @@
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" s="14"/>
       <c r="AI30" s="15"/>
@@ -1996,7 +1993,7 @@
       <c r="AE31" s="6"/>
       <c r="AF31" s="6"/>
       <c r="AG31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH31" s="14"/>
       <c r="AI31" s="15"/>
@@ -2157,7 +2154,7 @@
     <row r="36" spans="2:38" s="1" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2188,7 +2185,7 @@
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
@@ -2209,7 +2206,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -2222,7 +2219,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
@@ -2233,7 +2230,7 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF38" s="11"/>
       <c r="AG38" s="8"/>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="40" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2315,7 +2312,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
       <c r="AE40" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
@@ -2347,7 +2344,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
@@ -2358,7 +2355,7 @@
       <c r="AC41" s="11"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF41" s="11"/>
       <c r="AG41" s="8"/>
@@ -2407,91 +2404,83 @@
       <c r="AK42" s="11"/>
       <c r="AL42" s="11"/>
     </row>
-    <row r="43" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-      <c r="AL43" s="9"/>
+    <row r="43" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
     </row>
     <row r="44" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
     </row>
     <row r="45" spans="2:38" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:38" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2613,7 +2602,7 @@
       <c r="AK50" s="11"/>
       <c r="AL50" s="11"/>
       <c r="AM50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:39" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,6 +2763,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B1:AL1"/>
+    <mergeCell ref="B3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:AL3"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:AL5"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:V9"/>
+    <mergeCell ref="B15:AL15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:AL17"/>
+    <mergeCell ref="W6:AL9"/>
+    <mergeCell ref="B7:S8"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="B11:AL11"/>
+    <mergeCell ref="B13:AL13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:AL19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H21:AL21"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AH25:AL25"/>
+    <mergeCell ref="H23:AL23"/>
+    <mergeCell ref="D25:X25"/>
     <mergeCell ref="AH26:AL26"/>
     <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AD27:AG27"/>
@@ -2786,38 +2807,6 @@
     <mergeCell ref="D26:X26"/>
     <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:AL19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H21:AL21"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AH25:AL25"/>
-    <mergeCell ref="H23:AL23"/>
-    <mergeCell ref="D25:X25"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:V9"/>
-    <mergeCell ref="B15:AL15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:AL17"/>
-    <mergeCell ref="B1:AL1"/>
-    <mergeCell ref="B3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:AL3"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:AL5"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="W6:AL9"/>
-    <mergeCell ref="B7:S8"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B11:AL11"/>
-    <mergeCell ref="B13:AL13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
